--- a/results/mod1.strain.eff.MN.xlsx
+++ b/results/mod1.strain.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.305867968291309</v>
+        <v>-0.305866477816302</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0161783937407792</v>
+        <v>0.0161783071908444</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.337577037350945</v>
+        <v>-0.337575377241182</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.274158899231674</v>
+        <v>-0.274157578391421</v>
       </c>
       <c r="G2" t="n">
-        <v>-18.9059540268414</v>
+        <v>-18.9059630410156</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000101880141548197</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000101862732151281</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0390019030956802</v>
+        <v>-0.0390014803340141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0338170761693649</v>
+        <v>0.0338168843923427</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.105282154450083</v>
+        <v>-0.10528135581236</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0272783482587226</v>
+        <v>0.0272783951443322</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.15331978732722</v>
+        <v>-1.15331382635727</v>
       </c>
       <c r="H3" t="n">
-        <v>0.24877915129438</v>
+        <v>0.248781597093799</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.238131014389303</v>
+        <v>0.238129913310345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0132864640567521</v>
+        <v>0.0132864062454228</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>0.212090023356183</v>
+        <v>0.212089035585348</v>
       </c>
       <c r="F4" t="n">
-        <v>0.264172005422423</v>
+        <v>0.264170791035342</v>
       </c>
       <c r="G4" t="n">
-        <v>17.9228283290532</v>
+        <v>17.9228234416196</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000782468334524594</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000078253709119395</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.106738856997687</v>
+        <v>0.106738044839971</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0123452355767833</v>
+        <v>0.0123451692233563</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0825426398865288</v>
+        <v>0.0825419577791398</v>
       </c>
       <c r="F5" t="n">
-        <v>0.130935074108844</v>
+        <v>0.130934131900801</v>
       </c>
       <c r="G5" t="n">
-        <v>8.64615797194037</v>
+        <v>8.64613865624688</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00000000000000000532623671335691</v>
+        <v>0.00000000000000000532713790495646</v>
       </c>
     </row>
   </sheetData>
